--- a/Code/Results/Cases/Case_5_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032152864356461</v>
+        <v>1.081600781492819</v>
       </c>
       <c r="D2">
-        <v>1.048682523287769</v>
+        <v>1.08103714922124</v>
       </c>
       <c r="E2">
-        <v>1.041808735114258</v>
+        <v>1.084079617563019</v>
       </c>
       <c r="F2">
-        <v>1.052442658888475</v>
+        <v>1.093804605640813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061233143641618</v>
+        <v>1.053819493488765</v>
       </c>
       <c r="J2">
-        <v>1.053412649105597</v>
+        <v>1.086474558061409</v>
       </c>
       <c r="K2">
-        <v>1.059502870919373</v>
+        <v>1.083709018803913</v>
       </c>
       <c r="L2">
-        <v>1.052714787639258</v>
+        <v>1.086743567939309</v>
       </c>
       <c r="M2">
-        <v>1.063216713015745</v>
+        <v>1.096443561597217</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041654490181769</v>
+        <v>1.083401393453988</v>
       </c>
       <c r="D3">
-        <v>1.056323301946299</v>
+        <v>1.082480895611814</v>
       </c>
       <c r="E3">
-        <v>1.050165054719189</v>
+        <v>1.085685934394402</v>
       </c>
       <c r="F3">
-        <v>1.060972576031391</v>
+        <v>1.095454131505379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064635859077518</v>
+        <v>1.05432756573479</v>
       </c>
       <c r="J3">
-        <v>1.06107061185541</v>
+        <v>1.087933031224308</v>
       </c>
       <c r="K3">
-        <v>1.066282877616925</v>
+        <v>1.084969620202295</v>
       </c>
       <c r="L3">
-        <v>1.060193910285554</v>
+        <v>1.088166927195285</v>
       </c>
       <c r="M3">
-        <v>1.07088050273062</v>
+        <v>1.097911859235937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047581788846826</v>
+        <v>1.084563598509203</v>
       </c>
       <c r="D4">
-        <v>1.061091573127845</v>
+        <v>1.083412368181116</v>
       </c>
       <c r="E4">
-        <v>1.055379735834625</v>
+        <v>1.086722425092756</v>
       </c>
       <c r="F4">
-        <v>1.066298503618891</v>
+        <v>1.096518839316774</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066742176775317</v>
+        <v>1.054653478116228</v>
       </c>
       <c r="J4">
-        <v>1.065841979680184</v>
+        <v>1.088873509858958</v>
       </c>
       <c r="K4">
-        <v>1.070504616776516</v>
+        <v>1.085782062731296</v>
       </c>
       <c r="L4">
-        <v>1.064852744105715</v>
+        <v>1.089084541136353</v>
       </c>
       <c r="M4">
-        <v>1.075657566240762</v>
+        <v>1.098858813018984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.050024375556621</v>
+        <v>1.085051508273729</v>
       </c>
       <c r="D5">
-        <v>1.063056830467558</v>
+        <v>1.083803317874501</v>
       </c>
       <c r="E5">
-        <v>1.057529001985676</v>
+        <v>1.087157484349061</v>
       </c>
       <c r="F5">
-        <v>1.068494303369698</v>
+        <v>1.096965822618768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067606171732068</v>
+        <v>1.054789815877302</v>
       </c>
       <c r="J5">
-        <v>1.067806748024025</v>
+        <v>1.089268121634236</v>
       </c>
       <c r="K5">
-        <v>1.07224239888158</v>
+        <v>1.086122846318214</v>
       </c>
       <c r="L5">
-        <v>1.066770901256663</v>
+        <v>1.089469506192429</v>
       </c>
       <c r="M5">
-        <v>1.077625153178606</v>
+        <v>1.099256175016162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.050431707047802</v>
+        <v>1.085133390976264</v>
       </c>
       <c r="D6">
-        <v>1.063384574997682</v>
+        <v>1.083868922775307</v>
       </c>
       <c r="E6">
-        <v>1.057887436080082</v>
+        <v>1.087230493149405</v>
       </c>
       <c r="F6">
-        <v>1.068860537590026</v>
+        <v>1.097040837123897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067750016197197</v>
+        <v>1.054812668106052</v>
       </c>
       <c r="J6">
-        <v>1.068134308922614</v>
+        <v>1.089334334173259</v>
       </c>
       <c r="K6">
-        <v>1.072532077600271</v>
+        <v>1.08618002070799</v>
       </c>
       <c r="L6">
-        <v>1.067090675118682</v>
+        <v>1.089534096987206</v>
       </c>
       <c r="M6">
-        <v>1.077953211221315</v>
+        <v>1.099322850969974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047614615813463</v>
+        <v>1.08457012063865</v>
       </c>
       <c r="D7">
-        <v>1.06111798406338</v>
+        <v>1.083417594574161</v>
       </c>
       <c r="E7">
-        <v>1.05540861950821</v>
+        <v>1.086728241034597</v>
       </c>
       <c r="F7">
-        <v>1.066328009966818</v>
+        <v>1.096524814346607</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066753804317724</v>
+        <v>1.054655302516433</v>
       </c>
       <c r="J7">
-        <v>1.065868390958447</v>
+        <v>1.088878785670852</v>
       </c>
       <c r="K7">
-        <v>1.070527979457782</v>
+        <v>1.085786619297919</v>
       </c>
       <c r="L7">
-        <v>1.064878529900126</v>
+        <v>1.089089688183511</v>
       </c>
       <c r="M7">
-        <v>1.075684013559727</v>
+        <v>1.098864125469438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035412033845196</v>
+        <v>1.082209919042332</v>
       </c>
       <c r="D8">
-        <v>1.051302928353363</v>
+        <v>1.081525641966028</v>
       </c>
       <c r="E8">
-        <v>1.044674594184679</v>
+        <v>1.084623089379467</v>
       </c>
       <c r="F8">
-        <v>1.055367425976866</v>
+        <v>1.094362626622462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062403736406661</v>
+        <v>1.053991790928023</v>
       </c>
       <c r="J8">
-        <v>1.056040606043202</v>
+        <v>1.08696813681553</v>
       </c>
       <c r="K8">
-        <v>1.061830075620912</v>
+        <v>1.084135724720966</v>
       </c>
       <c r="L8">
-        <v>1.055281603082594</v>
+        <v>1.087225309518891</v>
       </c>
       <c r="M8">
-        <v>1.065846216836422</v>
+        <v>1.096940436017959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012030599225427</v>
+        <v>1.078027936590263</v>
       </c>
       <c r="D9">
-        <v>1.032518571649344</v>
+        <v>1.078170360271455</v>
       </c>
       <c r="E9">
-        <v>1.024127790001713</v>
+        <v>1.080890686067731</v>
       </c>
       <c r="F9">
-        <v>1.03441184085757</v>
+        <v>1.09053170263781</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053937554895171</v>
+        <v>1.052800582562804</v>
       </c>
       <c r="J9">
-        <v>1.0371655634403</v>
+        <v>1.083575850690426</v>
       </c>
       <c r="K9">
-        <v>1.045105204151126</v>
+        <v>1.081201243022052</v>
       </c>
       <c r="L9">
-        <v>1.036841174275709</v>
+        <v>1.083913457955662</v>
       </c>
       <c r="M9">
-        <v>1.04697023506126</v>
+        <v>1.093526083557883</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9948711050748849</v>
+        <v>1.075223485393483</v>
       </c>
       <c r="D10">
-        <v>1.018760526668672</v>
+        <v>1.075918363237347</v>
       </c>
       <c r="E10">
-        <v>1.009072096102444</v>
+        <v>1.078386181003754</v>
       </c>
       <c r="F10">
-        <v>1.019075148169633</v>
+        <v>1.087962862545595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04764052356495</v>
+        <v>1.051991314366398</v>
       </c>
       <c r="J10">
-        <v>1.023289702792298</v>
+        <v>1.081296381485388</v>
       </c>
       <c r="K10">
-        <v>1.03279911891553</v>
+        <v>1.079227149437757</v>
       </c>
       <c r="L10">
-        <v>1.023279460456999</v>
+        <v>1.081686873956055</v>
       </c>
       <c r="M10">
-        <v>1.033108329270745</v>
+        <v>1.091232529364707</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9869814751780063</v>
+        <v>1.074004999653701</v>
       </c>
       <c r="D11">
-        <v>1.012444798611856</v>
+        <v>1.074939465857999</v>
       </c>
       <c r="E11">
-        <v>1.002157928231919</v>
+        <v>1.077297657323719</v>
       </c>
       <c r="F11">
-        <v>1.012036728298569</v>
+        <v>1.086846802646728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044726995426638</v>
+        <v>1.051637230362952</v>
       </c>
       <c r="J11">
-        <v>1.016906051138949</v>
+        <v>1.080304907380444</v>
       </c>
       <c r="K11">
-        <v>1.027135779385867</v>
+        <v>1.078367973120841</v>
       </c>
       <c r="L11">
-        <v>1.01703926360595</v>
+        <v>1.080718125116164</v>
       </c>
       <c r="M11">
-        <v>1.026735164295665</v>
+        <v>1.090235107456672</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9839727966688845</v>
+        <v>1.073551758549813</v>
       </c>
       <c r="D12">
-        <v>1.010038165628234</v>
+        <v>1.074575279288095</v>
       </c>
       <c r="E12">
-        <v>0.9995227331684172</v>
+        <v>1.076892704884191</v>
       </c>
       <c r="F12">
-        <v>1.009354934737786</v>
+        <v>1.08643167050273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043613358897288</v>
+        <v>1.051505150679073</v>
       </c>
       <c r="J12">
-        <v>1.014471293508866</v>
+        <v>1.079935945532258</v>
       </c>
       <c r="K12">
-        <v>1.024975544419797</v>
+        <v>1.078048165017124</v>
       </c>
       <c r="L12">
-        <v>1.014659082573077</v>
+        <v>1.080357578283702</v>
       </c>
       <c r="M12">
-        <v>1.024305077093691</v>
+        <v>1.089863959261153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.984621868515058</v>
+        <v>1.073649009634808</v>
       </c>
       <c r="D13">
-        <v>1.010557266979995</v>
+        <v>1.074653425045813</v>
       </c>
       <c r="E13">
-        <v>1.000091160064086</v>
+        <v>1.076979597169938</v>
       </c>
       <c r="F13">
-        <v>1.009933378395213</v>
+        <v>1.086520744172835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043853720291193</v>
+        <v>1.051533507534272</v>
       </c>
       <c r="J13">
-        <v>1.014996565197495</v>
+        <v>1.080015120319567</v>
       </c>
       <c r="K13">
-        <v>1.025441599011621</v>
+        <v>1.078116795559882</v>
       </c>
       <c r="L13">
-        <v>1.015172585756997</v>
+        <v>1.080434949204683</v>
       </c>
       <c r="M13">
-        <v>1.024829309887965</v>
+        <v>1.089943601985933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9867344292610311</v>
+        <v>1.073967547796228</v>
       </c>
       <c r="D14">
-        <v>1.012247147830535</v>
+        <v>1.074909374008582</v>
       </c>
       <c r="E14">
-        <v>1.001941517518589</v>
+        <v>1.077264196702736</v>
       </c>
       <c r="F14">
-        <v>1.011816475208098</v>
+        <v>1.086812499578174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044635604496398</v>
+        <v>1.051626324017541</v>
       </c>
       <c r="J14">
-        <v>1.0167061369349</v>
+        <v>1.080274422929057</v>
       </c>
       <c r="K14">
-        <v>1.026958409567098</v>
+        <v>1.0783415514663</v>
       </c>
       <c r="L14">
-        <v>1.016843833238467</v>
+        <v>1.080688336786008</v>
       </c>
       <c r="M14">
-        <v>1.026535619628302</v>
+        <v>1.090204441811983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9880253947788279</v>
+        <v>1.074163724118566</v>
       </c>
       <c r="D15">
-        <v>1.013280070567713</v>
+        <v>1.075066995255756</v>
       </c>
       <c r="E15">
-        <v>1.003072457688956</v>
+        <v>1.077439464372822</v>
       </c>
       <c r="F15">
-        <v>1.012967526181983</v>
+        <v>1.086992182646815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045113074604521</v>
+        <v>1.051683437299221</v>
       </c>
       <c r="J15">
-        <v>1.017750796423622</v>
+        <v>1.080434096682477</v>
       </c>
       <c r="K15">
-        <v>1.027885254519348</v>
+        <v>1.078479941573017</v>
       </c>
       <c r="L15">
-        <v>1.017865056831467</v>
+        <v>1.080844362630193</v>
       </c>
       <c r="M15">
-        <v>1.027578375641537</v>
+        <v>1.090365065740902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953842958088417</v>
+        <v>1.075304263416285</v>
       </c>
       <c r="D16">
-        <v>1.019171573642597</v>
+        <v>1.075983248821614</v>
       </c>
       <c r="E16">
-        <v>1.009522025929808</v>
+        <v>1.078458335837361</v>
       </c>
       <c r="F16">
-        <v>1.019533265119365</v>
+        <v>1.088036851653785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047829675756321</v>
+        <v>1.052014735981284</v>
       </c>
       <c r="J16">
-        <v>1.023704872759251</v>
+        <v>1.081362087276775</v>
       </c>
       <c r="K16">
-        <v>1.033167409753186</v>
+        <v>1.079284076685046</v>
       </c>
       <c r="L16">
-        <v>1.023685280443316</v>
+        <v>1.081751067875714</v>
       </c>
       <c r="M16">
-        <v>1.033522905554618</v>
+        <v>1.091298633095229</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9998714254222848</v>
+        <v>1.076018571684036</v>
       </c>
       <c r="D17">
-        <v>1.022766751086357</v>
+        <v>1.076556971596375</v>
       </c>
       <c r="E17">
-        <v>1.013456968992226</v>
+        <v>1.079096349129725</v>
       </c>
       <c r="F17">
-        <v>1.023540350648951</v>
+        <v>1.088691133222337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049481519494908</v>
+        <v>1.052221565020736</v>
       </c>
       <c r="J17">
-        <v>1.02733454545842</v>
+        <v>1.081942989049501</v>
       </c>
       <c r="K17">
-        <v>1.036387034533971</v>
+        <v>1.079787306986385</v>
       </c>
       <c r="L17">
-        <v>1.02723309233294</v>
+        <v>1.082318571251629</v>
       </c>
       <c r="M17">
-        <v>1.037147848691158</v>
+        <v>1.091883073636162</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002445056795919</v>
+        <v>1.07643481748774</v>
       </c>
       <c r="D18">
-        <v>1.024829699175425</v>
+        <v>1.076891251829354</v>
       </c>
       <c r="E18">
-        <v>1.01571463017344</v>
+        <v>1.079468101246404</v>
       </c>
       <c r="F18">
-        <v>1.025839847044946</v>
+        <v>1.089072405333713</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050427237124526</v>
+        <v>1.052341851666774</v>
       </c>
       <c r="J18">
-        <v>1.029416010006622</v>
+        <v>1.082281391049514</v>
       </c>
       <c r="K18">
-        <v>1.038233174777306</v>
+        <v>1.080080410953791</v>
       </c>
       <c r="L18">
-        <v>1.029267511938446</v>
+        <v>1.082649141365639</v>
       </c>
       <c r="M18">
-        <v>1.039226974983126</v>
+        <v>1.092223554301991</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003315446513405</v>
+        <v>1.07657667960137</v>
       </c>
       <c r="D19">
-        <v>1.025527522287532</v>
+        <v>1.077005171688492</v>
       </c>
       <c r="E19">
-        <v>1.016478278912842</v>
+        <v>1.079594793426021</v>
       </c>
       <c r="F19">
-        <v>1.026617720695428</v>
+        <v>1.089202348834735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050746779408226</v>
+        <v>1.052382806582875</v>
       </c>
       <c r="J19">
-        <v>1.030119884300176</v>
+        <v>1.082396705236334</v>
       </c>
       <c r="K19">
-        <v>1.038857438759221</v>
+        <v>1.080180280704602</v>
       </c>
       <c r="L19">
-        <v>1.029955459615856</v>
+        <v>1.082761782226343</v>
       </c>
       <c r="M19">
-        <v>1.03993012040669</v>
+        <v>1.092339579723145</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9993945726182021</v>
+        <v>1.075941974485983</v>
       </c>
       <c r="D20">
-        <v>1.022384590838012</v>
+        <v>1.076495454177193</v>
       </c>
       <c r="E20">
-        <v>1.013038718854628</v>
+        <v>1.07902793682771</v>
       </c>
       <c r="F20">
-        <v>1.023114385963509</v>
+        <v>1.088620972281898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04930615307783</v>
+        <v>1.052199410805093</v>
       </c>
       <c r="J20">
-        <v>1.026948852441008</v>
+        <v>1.081880708189332</v>
       </c>
       <c r="K20">
-        <v>1.036044931827252</v>
+        <v>1.079733358859686</v>
       </c>
       <c r="L20">
-        <v>1.026856108328535</v>
+        <v>1.082257729652946</v>
       </c>
       <c r="M20">
-        <v>1.036762618922591</v>
+        <v>1.09182041159175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9861145709745414</v>
+        <v>1.073873764104527</v>
       </c>
       <c r="D21">
-        <v>1.011751256827428</v>
+        <v>1.074834019559711</v>
       </c>
       <c r="E21">
-        <v>1.001398550429268</v>
+        <v>1.077180406658328</v>
       </c>
       <c r="F21">
-        <v>1.011263880021415</v>
+        <v>1.086726600967913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04440625653775</v>
+        <v>1.051599007307739</v>
       </c>
       <c r="J21">
-        <v>1.016204530587627</v>
+        <v>1.080198083789328</v>
       </c>
       <c r="K21">
-        <v>1.02651336644716</v>
+        <v>1.078275385107805</v>
       </c>
       <c r="L21">
-        <v>1.016353475198133</v>
+        <v>1.080613740196445</v>
       </c>
       <c r="M21">
-        <v>1.026034951473419</v>
+        <v>1.090127649365391</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773070637456686</v>
+        <v>1.072569678383192</v>
       </c>
       <c r="D22">
-        <v>1.004710117912733</v>
+        <v>1.073786043820879</v>
       </c>
       <c r="E22">
-        <v>0.9936875624427419</v>
+        <v>1.076015159179035</v>
       </c>
       <c r="F22">
-        <v>1.003418028232272</v>
+        <v>1.085532183154221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041141543846799</v>
+        <v>1.051218283242732</v>
       </c>
       <c r="J22">
-        <v>1.009076626338621</v>
+        <v>1.079136184387409</v>
       </c>
       <c r="K22">
-        <v>1.020188840377883</v>
+        <v>1.077354805663338</v>
       </c>
       <c r="L22">
-        <v>1.009385115787699</v>
+        <v>1.079575980788081</v>
       </c>
       <c r="M22">
-        <v>1.018922076061646</v>
+        <v>1.089059508701492</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9820230054051793</v>
+        <v>1.073261357982716</v>
       </c>
       <c r="D23">
-        <v>1.008479101979859</v>
+        <v>1.074341919493562</v>
       </c>
       <c r="E23">
-        <v>0.9978154393011998</v>
+        <v>1.076633228852257</v>
       </c>
       <c r="F23">
-        <v>1.007617669350293</v>
+        <v>1.086165689912127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042890958135702</v>
+        <v>1.051420420275436</v>
       </c>
       <c r="J23">
-        <v>1.012893355175878</v>
+        <v>1.079699498675845</v>
       </c>
       <c r="K23">
-        <v>1.023575472493572</v>
+        <v>1.077843195885237</v>
       </c>
       <c r="L23">
-        <v>1.013116479211771</v>
+        <v>1.080126512339383</v>
       </c>
       <c r="M23">
-        <v>1.022730363192319</v>
+        <v>1.089626118935689</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9996101760499233</v>
+        <v>1.075976586692566</v>
       </c>
       <c r="D24">
-        <v>1.022557377348756</v>
+        <v>1.076523252371057</v>
       </c>
       <c r="E24">
-        <v>1.013227823487316</v>
+        <v>1.079058850607809</v>
       </c>
       <c r="F24">
-        <v>1.023306977218887</v>
+        <v>1.088652676100721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04938544829554</v>
+        <v>1.052209422432922</v>
       </c>
       <c r="J24">
-        <v>1.027123240188728</v>
+        <v>1.081908851552005</v>
       </c>
       <c r="K24">
-        <v>1.036199611157244</v>
+        <v>1.079757736998993</v>
       </c>
       <c r="L24">
-        <v>1.02702655868831</v>
+        <v>1.082285222727292</v>
       </c>
       <c r="M24">
-        <v>1.036936796056831</v>
+        <v>1.091848727150197</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01832679163163</v>
+        <v>1.079111907392003</v>
       </c>
       <c r="D25">
-        <v>1.037573159072596</v>
+        <v>1.079040395140755</v>
       </c>
       <c r="E25">
-        <v>1.029657444384375</v>
+        <v>1.081858399309328</v>
       </c>
       <c r="F25">
-        <v>1.040048500869728</v>
+        <v>1.091524649524353</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056231893757702</v>
+        <v>1.053111180914999</v>
       </c>
       <c r="J25">
-        <v>1.042252744668708</v>
+        <v>1.084455940652284</v>
       </c>
       <c r="K25">
-        <v>1.049614913292786</v>
+        <v>1.081962957700428</v>
       </c>
       <c r="L25">
-        <v>1.041812172924733</v>
+        <v>1.084772883817761</v>
       </c>
       <c r="M25">
-        <v>1.052055372523801</v>
+        <v>1.094411768774962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_95/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081600781492819</v>
+        <v>1.032152864356461</v>
       </c>
       <c r="D2">
-        <v>1.08103714922124</v>
+        <v>1.048682523287769</v>
       </c>
       <c r="E2">
-        <v>1.084079617563019</v>
+        <v>1.041808735114258</v>
       </c>
       <c r="F2">
-        <v>1.093804605640813</v>
+        <v>1.052442658888477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053819493488765</v>
+        <v>1.061233143641618</v>
       </c>
       <c r="J2">
-        <v>1.086474558061409</v>
+        <v>1.053412649105598</v>
       </c>
       <c r="K2">
-        <v>1.083709018803913</v>
+        <v>1.059502870919374</v>
       </c>
       <c r="L2">
-        <v>1.086743567939309</v>
+        <v>1.052714787639258</v>
       </c>
       <c r="M2">
-        <v>1.096443561597217</v>
+        <v>1.063216713015747</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083401393453988</v>
+        <v>1.041654490181771</v>
       </c>
       <c r="D3">
-        <v>1.082480895611814</v>
+        <v>1.056323301946301</v>
       </c>
       <c r="E3">
-        <v>1.085685934394402</v>
+        <v>1.050165054719191</v>
       </c>
       <c r="F3">
-        <v>1.095454131505379</v>
+        <v>1.060972576031393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05432756573479</v>
+        <v>1.064635859077519</v>
       </c>
       <c r="J3">
-        <v>1.087933031224308</v>
+        <v>1.061070611855412</v>
       </c>
       <c r="K3">
-        <v>1.084969620202295</v>
+        <v>1.066282877616928</v>
       </c>
       <c r="L3">
-        <v>1.088166927195285</v>
+        <v>1.060193910285556</v>
       </c>
       <c r="M3">
-        <v>1.097911859235937</v>
+        <v>1.070880502730623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.084563598509203</v>
+        <v>1.047581788846827</v>
       </c>
       <c r="D4">
-        <v>1.083412368181116</v>
+        <v>1.061091573127845</v>
       </c>
       <c r="E4">
-        <v>1.086722425092756</v>
+        <v>1.055379735834626</v>
       </c>
       <c r="F4">
-        <v>1.096518839316774</v>
+        <v>1.066298503618891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054653478116228</v>
+        <v>1.066742176775317</v>
       </c>
       <c r="J4">
-        <v>1.088873509858958</v>
+        <v>1.065841979680185</v>
       </c>
       <c r="K4">
-        <v>1.085782062731296</v>
+        <v>1.070504616776516</v>
       </c>
       <c r="L4">
-        <v>1.089084541136353</v>
+        <v>1.064852744105716</v>
       </c>
       <c r="M4">
-        <v>1.098858813018984</v>
+        <v>1.075657566240763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.085051508273729</v>
+        <v>1.050024375556619</v>
       </c>
       <c r="D5">
-        <v>1.083803317874501</v>
+        <v>1.063056830467556</v>
       </c>
       <c r="E5">
-        <v>1.087157484349061</v>
+        <v>1.057529001985674</v>
       </c>
       <c r="F5">
-        <v>1.096965822618768</v>
+        <v>1.068494303369696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054789815877302</v>
+        <v>1.067606171732067</v>
       </c>
       <c r="J5">
-        <v>1.089268121634236</v>
+        <v>1.067806748024023</v>
       </c>
       <c r="K5">
-        <v>1.086122846318214</v>
+        <v>1.072242398881578</v>
       </c>
       <c r="L5">
-        <v>1.089469506192429</v>
+        <v>1.066770901256661</v>
       </c>
       <c r="M5">
-        <v>1.099256175016162</v>
+        <v>1.077625153178604</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.085133390976264</v>
+        <v>1.050431707047801</v>
       </c>
       <c r="D6">
-        <v>1.083868922775307</v>
+        <v>1.063384574997681</v>
       </c>
       <c r="E6">
-        <v>1.087230493149405</v>
+        <v>1.057887436080081</v>
       </c>
       <c r="F6">
-        <v>1.097040837123897</v>
+        <v>1.068860537590025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054812668106052</v>
+        <v>1.067750016197196</v>
       </c>
       <c r="J6">
-        <v>1.089334334173259</v>
+        <v>1.068134308922613</v>
       </c>
       <c r="K6">
-        <v>1.08618002070799</v>
+        <v>1.07253207760027</v>
       </c>
       <c r="L6">
-        <v>1.089534096987206</v>
+        <v>1.067090675118681</v>
       </c>
       <c r="M6">
-        <v>1.099322850969974</v>
+        <v>1.077953211221314</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08457012063865</v>
+        <v>1.047614615813462</v>
       </c>
       <c r="D7">
-        <v>1.083417594574161</v>
+        <v>1.061117984063379</v>
       </c>
       <c r="E7">
-        <v>1.086728241034597</v>
+        <v>1.055408619508209</v>
       </c>
       <c r="F7">
-        <v>1.096524814346607</v>
+        <v>1.066328009966817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054655302516433</v>
+        <v>1.066753804317724</v>
       </c>
       <c r="J7">
-        <v>1.088878785670852</v>
+        <v>1.065868390958445</v>
       </c>
       <c r="K7">
-        <v>1.085786619297919</v>
+        <v>1.070527979457782</v>
       </c>
       <c r="L7">
-        <v>1.089089688183511</v>
+        <v>1.064878529900125</v>
       </c>
       <c r="M7">
-        <v>1.098864125469438</v>
+        <v>1.075684013559726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.082209919042332</v>
+        <v>1.035412033845195</v>
       </c>
       <c r="D8">
-        <v>1.081525641966028</v>
+        <v>1.051302928353363</v>
       </c>
       <c r="E8">
-        <v>1.084623089379467</v>
+        <v>1.044674594184678</v>
       </c>
       <c r="F8">
-        <v>1.094362626622462</v>
+        <v>1.055367425976866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053991790928023</v>
+        <v>1.06240373640666</v>
       </c>
       <c r="J8">
-        <v>1.08696813681553</v>
+        <v>1.056040606043201</v>
       </c>
       <c r="K8">
-        <v>1.084135724720966</v>
+        <v>1.061830075620911</v>
       </c>
       <c r="L8">
-        <v>1.087225309518891</v>
+        <v>1.055281603082592</v>
       </c>
       <c r="M8">
-        <v>1.096940436017959</v>
+        <v>1.065846216836422</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078027936590263</v>
+        <v>1.012030599225428</v>
       </c>
       <c r="D9">
-        <v>1.078170360271455</v>
+        <v>1.032518571649345</v>
       </c>
       <c r="E9">
-        <v>1.080890686067731</v>
+        <v>1.024127790001714</v>
       </c>
       <c r="F9">
-        <v>1.09053170263781</v>
+        <v>1.034411840857571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052800582562804</v>
+        <v>1.053937554895171</v>
       </c>
       <c r="J9">
-        <v>1.083575850690426</v>
+        <v>1.037165563440301</v>
       </c>
       <c r="K9">
-        <v>1.081201243022052</v>
+        <v>1.045105204151127</v>
       </c>
       <c r="L9">
-        <v>1.083913457955662</v>
+        <v>1.03684117427571</v>
       </c>
       <c r="M9">
-        <v>1.093526083557883</v>
+        <v>1.046970235061261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075223485393483</v>
+        <v>0.9948711050748851</v>
       </c>
       <c r="D10">
-        <v>1.075918363237347</v>
+        <v>1.018760526668672</v>
       </c>
       <c r="E10">
-        <v>1.078386181003754</v>
+        <v>1.009072096102444</v>
       </c>
       <c r="F10">
-        <v>1.087962862545595</v>
+        <v>1.019075148169633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051991314366398</v>
+        <v>1.04764052356495</v>
       </c>
       <c r="J10">
-        <v>1.081296381485388</v>
+        <v>1.023289702792298</v>
       </c>
       <c r="K10">
-        <v>1.079227149437757</v>
+        <v>1.032799118915531</v>
       </c>
       <c r="L10">
-        <v>1.081686873956055</v>
+        <v>1.023279460456999</v>
       </c>
       <c r="M10">
-        <v>1.091232529364707</v>
+        <v>1.033108329270745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.074004999653701</v>
+        <v>0.986981475178009</v>
       </c>
       <c r="D11">
-        <v>1.074939465857999</v>
+        <v>1.012444798611859</v>
       </c>
       <c r="E11">
-        <v>1.077297657323719</v>
+        <v>1.002157928231921</v>
       </c>
       <c r="F11">
-        <v>1.086846802646728</v>
+        <v>1.012036728298572</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051637230362952</v>
+        <v>1.044726995426639</v>
       </c>
       <c r="J11">
-        <v>1.080304907380444</v>
+        <v>1.016906051138952</v>
       </c>
       <c r="K11">
-        <v>1.078367973120841</v>
+        <v>1.027135779385869</v>
       </c>
       <c r="L11">
-        <v>1.080718125116164</v>
+        <v>1.017039263605952</v>
       </c>
       <c r="M11">
-        <v>1.090235107456672</v>
+        <v>1.026735164295667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073551758549813</v>
+        <v>0.9839727966688794</v>
       </c>
       <c r="D12">
-        <v>1.074575279288095</v>
+        <v>1.010038165628229</v>
       </c>
       <c r="E12">
-        <v>1.076892704884191</v>
+        <v>0.9995227331684123</v>
       </c>
       <c r="F12">
-        <v>1.08643167050273</v>
+        <v>1.009354934737781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051505150679073</v>
+        <v>1.043613358897285</v>
       </c>
       <c r="J12">
-        <v>1.079935945532258</v>
+        <v>1.014471293508861</v>
       </c>
       <c r="K12">
-        <v>1.078048165017124</v>
+        <v>1.024975544419793</v>
       </c>
       <c r="L12">
-        <v>1.080357578283702</v>
+        <v>1.014659082573072</v>
       </c>
       <c r="M12">
-        <v>1.089863959261153</v>
+        <v>1.024305077093686</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073649009634808</v>
+        <v>0.9846218685150585</v>
       </c>
       <c r="D13">
-        <v>1.074653425045813</v>
+        <v>1.010557266979996</v>
       </c>
       <c r="E13">
-        <v>1.076979597169938</v>
+        <v>1.000091160064086</v>
       </c>
       <c r="F13">
-        <v>1.086520744172835</v>
+        <v>1.009933378395214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051533507534272</v>
+        <v>1.043853720291193</v>
       </c>
       <c r="J13">
-        <v>1.080015120319567</v>
+        <v>1.014996565197495</v>
       </c>
       <c r="K13">
-        <v>1.078116795559882</v>
+        <v>1.025441599011621</v>
       </c>
       <c r="L13">
-        <v>1.080434949204683</v>
+        <v>1.015172585756997</v>
       </c>
       <c r="M13">
-        <v>1.089943601985933</v>
+        <v>1.024829309887966</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073967547796228</v>
+        <v>0.9867344292610349</v>
       </c>
       <c r="D14">
-        <v>1.074909374008582</v>
+        <v>1.012247147830539</v>
       </c>
       <c r="E14">
-        <v>1.077264196702736</v>
+        <v>1.001941517518593</v>
       </c>
       <c r="F14">
-        <v>1.086812499578174</v>
+        <v>1.011816475208102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051626324017541</v>
+        <v>1.0446356044964</v>
       </c>
       <c r="J14">
-        <v>1.080274422929057</v>
+        <v>1.016706136934904</v>
       </c>
       <c r="K14">
-        <v>1.0783415514663</v>
+        <v>1.026958409567102</v>
       </c>
       <c r="L14">
-        <v>1.080688336786008</v>
+        <v>1.016843833238471</v>
       </c>
       <c r="M14">
-        <v>1.090204441811983</v>
+        <v>1.026535619628306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074163724118566</v>
+        <v>0.988025394778829</v>
       </c>
       <c r="D15">
-        <v>1.075066995255756</v>
+        <v>1.013280070567714</v>
       </c>
       <c r="E15">
-        <v>1.077439464372822</v>
+        <v>1.003072457688957</v>
       </c>
       <c r="F15">
-        <v>1.086992182646815</v>
+        <v>1.012967526181984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051683437299221</v>
+        <v>1.045113074604521</v>
       </c>
       <c r="J15">
-        <v>1.080434096682477</v>
+        <v>1.017750796423623</v>
       </c>
       <c r="K15">
-        <v>1.078479941573017</v>
+        <v>1.027885254519348</v>
       </c>
       <c r="L15">
-        <v>1.080844362630193</v>
+        <v>1.017865056831468</v>
       </c>
       <c r="M15">
-        <v>1.090365065740902</v>
+        <v>1.027578375641538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075304263416285</v>
+        <v>0.9953842958088417</v>
       </c>
       <c r="D16">
-        <v>1.075983248821614</v>
+        <v>1.019171573642597</v>
       </c>
       <c r="E16">
-        <v>1.078458335837361</v>
+        <v>1.009522025929808</v>
       </c>
       <c r="F16">
-        <v>1.088036851653785</v>
+        <v>1.019533265119365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052014735981284</v>
+        <v>1.047829675756321</v>
       </c>
       <c r="J16">
-        <v>1.081362087276775</v>
+        <v>1.023704872759251</v>
       </c>
       <c r="K16">
-        <v>1.079284076685046</v>
+        <v>1.033167409753186</v>
       </c>
       <c r="L16">
-        <v>1.081751067875714</v>
+        <v>1.023685280443316</v>
       </c>
       <c r="M16">
-        <v>1.091298633095229</v>
+        <v>1.033522905554618</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076018571684036</v>
+        <v>0.9998714254222847</v>
       </c>
       <c r="D17">
-        <v>1.076556971596375</v>
+        <v>1.022766751086357</v>
       </c>
       <c r="E17">
-        <v>1.079096349129725</v>
+        <v>1.013456968992226</v>
       </c>
       <c r="F17">
-        <v>1.088691133222337</v>
+        <v>1.023540350648951</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052221565020736</v>
+        <v>1.049481519494908</v>
       </c>
       <c r="J17">
-        <v>1.081942989049501</v>
+        <v>1.02733454545842</v>
       </c>
       <c r="K17">
-        <v>1.079787306986385</v>
+        <v>1.036387034533971</v>
       </c>
       <c r="L17">
-        <v>1.082318571251629</v>
+        <v>1.02723309233294</v>
       </c>
       <c r="M17">
-        <v>1.091883073636162</v>
+        <v>1.037147848691158</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.07643481748774</v>
+        <v>1.00244505679592</v>
       </c>
       <c r="D18">
-        <v>1.076891251829354</v>
+        <v>1.024829699175426</v>
       </c>
       <c r="E18">
-        <v>1.079468101246404</v>
+        <v>1.015714630173441</v>
       </c>
       <c r="F18">
-        <v>1.089072405333713</v>
+        <v>1.025839847044947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052341851666774</v>
+        <v>1.050427237124527</v>
       </c>
       <c r="J18">
-        <v>1.082281391049514</v>
+        <v>1.029416010006624</v>
       </c>
       <c r="K18">
-        <v>1.080080410953791</v>
+        <v>1.038233174777308</v>
       </c>
       <c r="L18">
-        <v>1.082649141365639</v>
+        <v>1.029267511938448</v>
       </c>
       <c r="M18">
-        <v>1.092223554301991</v>
+        <v>1.039226974983127</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07657667960137</v>
+        <v>1.003315446513402</v>
       </c>
       <c r="D19">
-        <v>1.077005171688492</v>
+        <v>1.025527522287528</v>
       </c>
       <c r="E19">
-        <v>1.079594793426021</v>
+        <v>1.016478278912839</v>
       </c>
       <c r="F19">
-        <v>1.089202348834735</v>
+        <v>1.026617720695424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052382806582875</v>
+        <v>1.050746779408225</v>
       </c>
       <c r="J19">
-        <v>1.082396705236334</v>
+        <v>1.030119884300172</v>
       </c>
       <c r="K19">
-        <v>1.080180280704602</v>
+        <v>1.038857438759218</v>
       </c>
       <c r="L19">
-        <v>1.082761782226343</v>
+        <v>1.029955459615853</v>
       </c>
       <c r="M19">
-        <v>1.092339579723145</v>
+        <v>1.039930120406687</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.075941974485983</v>
+        <v>0.9993945726182016</v>
       </c>
       <c r="D20">
-        <v>1.076495454177193</v>
+        <v>1.022384590838012</v>
       </c>
       <c r="E20">
-        <v>1.07902793682771</v>
+        <v>1.013038718854627</v>
       </c>
       <c r="F20">
-        <v>1.088620972281898</v>
+        <v>1.023114385963509</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052199410805093</v>
+        <v>1.049306153077829</v>
       </c>
       <c r="J20">
-        <v>1.081880708189332</v>
+        <v>1.026948852441007</v>
       </c>
       <c r="K20">
-        <v>1.079733358859686</v>
+        <v>1.036044931827251</v>
       </c>
       <c r="L20">
-        <v>1.082257729652946</v>
+        <v>1.026856108328535</v>
       </c>
       <c r="M20">
-        <v>1.09182041159175</v>
+        <v>1.036762618922591</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073873764104527</v>
+        <v>0.9861145709745409</v>
       </c>
       <c r="D21">
-        <v>1.074834019559711</v>
+        <v>1.011751256827428</v>
       </c>
       <c r="E21">
-        <v>1.077180406658328</v>
+        <v>1.001398550429267</v>
       </c>
       <c r="F21">
-        <v>1.086726600967913</v>
+        <v>1.011263880021414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051599007307739</v>
+        <v>1.04440625653775</v>
       </c>
       <c r="J21">
-        <v>1.080198083789328</v>
+        <v>1.016204530587627</v>
       </c>
       <c r="K21">
-        <v>1.078275385107805</v>
+        <v>1.026513366447159</v>
       </c>
       <c r="L21">
-        <v>1.080613740196445</v>
+        <v>1.016353475198132</v>
       </c>
       <c r="M21">
-        <v>1.090127649365391</v>
+        <v>1.026034951473418</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072569678383192</v>
+        <v>0.9773070637456684</v>
       </c>
       <c r="D22">
-        <v>1.073786043820879</v>
+        <v>1.004710117912733</v>
       </c>
       <c r="E22">
-        <v>1.076015159179035</v>
+        <v>0.9936875624427415</v>
       </c>
       <c r="F22">
-        <v>1.085532183154221</v>
+        <v>1.003418028232272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051218283242732</v>
+        <v>1.041141543846799</v>
       </c>
       <c r="J22">
-        <v>1.079136184387409</v>
+        <v>1.009076626338621</v>
       </c>
       <c r="K22">
-        <v>1.077354805663338</v>
+        <v>1.020188840377883</v>
       </c>
       <c r="L22">
-        <v>1.079575980788081</v>
+        <v>1.0093851157877</v>
       </c>
       <c r="M22">
-        <v>1.089059508701492</v>
+        <v>1.018922076061645</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073261357982716</v>
+        <v>0.9820230054051812</v>
       </c>
       <c r="D23">
-        <v>1.074341919493562</v>
+        <v>1.008479101979861</v>
       </c>
       <c r="E23">
-        <v>1.076633228852257</v>
+        <v>0.9978154393012013</v>
       </c>
       <c r="F23">
-        <v>1.086165689912127</v>
+        <v>1.007617669350295</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051420420275436</v>
+        <v>1.042890958135703</v>
       </c>
       <c r="J23">
-        <v>1.079699498675845</v>
+        <v>1.01289335517588</v>
       </c>
       <c r="K23">
-        <v>1.077843195885237</v>
+        <v>1.023575472493574</v>
       </c>
       <c r="L23">
-        <v>1.080126512339383</v>
+        <v>1.013116479211773</v>
       </c>
       <c r="M23">
-        <v>1.089626118935689</v>
+        <v>1.022730363192321</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.075976586692566</v>
+        <v>0.9996101760499232</v>
       </c>
       <c r="D24">
-        <v>1.076523252371057</v>
+        <v>1.022557377348756</v>
       </c>
       <c r="E24">
-        <v>1.079058850607809</v>
+        <v>1.013227823487316</v>
       </c>
       <c r="F24">
-        <v>1.088652676100721</v>
+        <v>1.023306977218887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052209422432922</v>
+        <v>1.04938544829554</v>
       </c>
       <c r="J24">
-        <v>1.081908851552005</v>
+        <v>1.027123240188729</v>
       </c>
       <c r="K24">
-        <v>1.079757736998993</v>
+        <v>1.036199611157244</v>
       </c>
       <c r="L24">
-        <v>1.082285222727292</v>
+        <v>1.02702655868831</v>
       </c>
       <c r="M24">
-        <v>1.091848727150197</v>
+        <v>1.036936796056831</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079111907392003</v>
+        <v>1.018326791631631</v>
       </c>
       <c r="D25">
-        <v>1.079040395140755</v>
+        <v>1.037573159072596</v>
       </c>
       <c r="E25">
-        <v>1.081858399309328</v>
+        <v>1.029657444384376</v>
       </c>
       <c r="F25">
-        <v>1.091524649524353</v>
+        <v>1.040048500869729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053111180914999</v>
+        <v>1.056231893757702</v>
       </c>
       <c r="J25">
-        <v>1.084455940652284</v>
+        <v>1.042252744668708</v>
       </c>
       <c r="K25">
-        <v>1.081962957700428</v>
+        <v>1.049614913292786</v>
       </c>
       <c r="L25">
-        <v>1.084772883817761</v>
+        <v>1.041812172924734</v>
       </c>
       <c r="M25">
-        <v>1.094411768774962</v>
+        <v>1.052055372523801</v>
       </c>
     </row>
   </sheetData>
